--- a/TestData/NewPatientData.xlsx
+++ b/TestData/NewPatientData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7863ae750b68759b/Desktop/SmartHospitalGeneralRepository/Pilot_Project_Smart_hospital_Team3/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7863ae750b68759b/Desktop/SmartHospital/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{78590023-264C-47F9-99D7-3FE4B35FB068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B71C1F-0E36-4385-BF27-917C8D151BFB}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{78590023-264C-47F9-99D7-3FE4B35FB068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E485D4-E7E6-4947-8C57-7171E08B5B21}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="10800" windowHeight="9040" xr2:uid="{1F9BC631-AE66-45E6-AEC9-5DC2ED437C72}"/>
+    <workbookView xWindow="340" yWindow="1160" windowWidth="10800" windowHeight="9040" xr2:uid="{1F9BC631-AE66-45E6-AEC9-5DC2ED437C72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>O+</t>
   </si>
   <si>
-    <t>praburam@gmail.com</t>
-  </si>
-  <si>
     <t>kaveri avenu,amman nager,coimbatore-98</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>${known_allergies}</t>
+  </si>
+  <si>
+    <t>praburama@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1DA8E-C46D-4563-BBDD-F186C3909C38}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,43 +491,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -538,25 +538,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>9977554433</v>
+        <v>9977554432</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
       </c>
       <c r="J2">
         <v>1876548</v>
